--- a/data/trans_orig/P75-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P75-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCA6000-2831-4394-9BA7-E6B8D9D5BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE6C807-5579-4304-A590-37383038B9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40F7B021-66EF-4261-8771-71409469AC4E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36D7F041-9E49-4083-BAD7-0A7B71BA0E56}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>26,36%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,64%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>70,39%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
   <si>
     <t>72,06%</t>
   </si>
   <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>28,34%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>29,13%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>70,87%</t>
   </si>
   <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>25,49%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>74,3%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>22,44%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,463 +366,481 @@
     <t>22,45%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>81,77%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,61%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>90,39%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029F9260-EEAB-4775-A112-81D2AC4C98F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8859776-F95D-4699-80E5-78C3C6B717D6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2321,10 +2339,10 @@
         <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2357,13 @@
         <v>2498408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2393</v>
@@ -2354,28 +2372,28 @@
         <v>2569583</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4751</v>
       </c>
       <c r="N23" s="7">
-        <v>5067991</v>
+        <v>5067992</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,7 +2435,7 @@
         <v>6432</v>
       </c>
       <c r="N24" s="7">
-        <v>6906371</v>
+        <v>6906372</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2431,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF084C5-C654-464D-B166-41CD337EE63A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6BB417-66BC-43F2-93C8-674D0FC266F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2577,13 +2595,13 @@
         <v>72143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2592,13 +2610,13 @@
         <v>69679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -2607,13 +2625,13 @@
         <v>141822</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2646,13 @@
         <v>347320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -2643,13 +2661,13 @@
         <v>326076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>659</v>
@@ -2658,13 +2676,13 @@
         <v>673396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2750,13 @@
         <v>96937</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>105</v>
@@ -2747,13 +2765,13 @@
         <v>101574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -2762,13 +2780,13 @@
         <v>198511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2801,13 @@
         <v>493559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -2798,13 +2816,13 @@
         <v>461970</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -2813,13 +2831,13 @@
         <v>955529</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2905,13 @@
         <v>89333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -2902,13 +2920,13 @@
         <v>100466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -2917,13 +2935,13 @@
         <v>189799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2956,13 @@
         <v>579764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
@@ -2953,13 +2971,13 @@
         <v>560920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1119</v>
@@ -2968,13 +2986,13 @@
         <v>1140684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3060,13 @@
         <v>89691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -3057,13 +3075,13 @@
         <v>97585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3072,13 +3090,13 @@
         <v>187276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3111,13 @@
         <v>556357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>510</v>
@@ -3108,28 +3126,28 @@
         <v>551492</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1010</v>
       </c>
       <c r="N14" s="7">
-        <v>1107849</v>
+        <v>1107850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3189,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3197,13 +3215,13 @@
         <v>60640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3212,13 +3230,13 @@
         <v>61273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -3227,13 +3245,13 @@
         <v>121913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3266,13 @@
         <v>417278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3263,13 +3281,13 @@
         <v>435576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3278,13 +3296,13 @@
         <v>852854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3370,13 @@
         <v>71221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -3367,13 +3385,13 @@
         <v>96807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>160</v>
@@ -3382,13 +3400,13 @@
         <v>168028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3421,13 @@
         <v>520107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>572</v>
@@ -3418,13 +3436,13 @@
         <v>681124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>1122</v>
@@ -3433,13 +3451,13 @@
         <v>1201231</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3525,13 @@
         <v>479965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>504</v>
@@ -3522,13 +3540,13 @@
         <v>527383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>963</v>
@@ -3537,13 +3555,13 @@
         <v>1007348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3576,13 @@
         <v>2914385</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2834</v>
@@ -3573,13 +3591,13 @@
         <v>3017159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>5606</v>
@@ -3588,13 +3606,13 @@
         <v>5931544</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P75-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE6C807-5579-4304-A590-37383038B9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1108C40E-7546-45A8-A416-C6D9BBC8264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36D7F041-9E49-4083-BAD7-0A7B71BA0E56}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DBC90DE-6DD3-4185-935D-844AE70BF7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="262">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>26,36%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,64%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>70,39%</t>
   </si>
   <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>72,06%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>28,34%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>29,13%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>70,87%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>25,49%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>74,3%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>22,44%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,64 +366,61 @@
     <t>22,45%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>26,87%</t>
@@ -438,19 +435,13 @@
     <t>26,62%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>73,13%</t>
@@ -465,382 +456,373 @@
     <t>73,38%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>72,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>16,42%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>86,36%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8859776-F95D-4699-80E5-78C3C6B717D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CDCE4A-30A5-4FB1-BBFE-571CC340A735}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2306,13 +2288,13 @@
         <v>894080</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>864</v>
@@ -2321,13 +2303,13 @@
         <v>944300</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1681</v>
@@ -2336,13 +2318,13 @@
         <v>1838380</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2339,13 @@
         <v>2498408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2393</v>
@@ -2372,28 +2354,28 @@
         <v>2569583</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>4751</v>
       </c>
       <c r="N23" s="7">
-        <v>5067992</v>
+        <v>5067991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2417,7 @@
         <v>6432</v>
       </c>
       <c r="N24" s="7">
-        <v>6906372</v>
+        <v>6906371</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2449,7 +2431,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6BB417-66BC-43F2-93C8-674D0FC266F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B181CB6C-8739-4588-8B05-D612493FFEBB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2595,13 +2577,13 @@
         <v>72143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2610,13 +2592,13 @@
         <v>69679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -2625,13 +2607,13 @@
         <v>141822</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2628,13 @@
         <v>347320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -2661,13 +2643,13 @@
         <v>326076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>659</v>
@@ -2676,13 +2658,13 @@
         <v>673396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2732,13 @@
         <v>96937</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>105</v>
@@ -2765,13 +2747,13 @@
         <v>101574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -2780,13 +2762,13 @@
         <v>198511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2783,13 @@
         <v>493559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -2816,13 +2798,13 @@
         <v>461970</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -2831,13 +2813,13 @@
         <v>955529</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2887,13 @@
         <v>89333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -2920,13 +2902,13 @@
         <v>100466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -2935,13 +2917,13 @@
         <v>189799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2938,13 @@
         <v>579764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
@@ -2971,13 +2953,13 @@
         <v>560920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1119</v>
@@ -2986,13 +2968,13 @@
         <v>1140684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3042,13 @@
         <v>89691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -3075,13 +3057,13 @@
         <v>97585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3090,13 +3072,13 @@
         <v>187276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3093,13 @@
         <v>556357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>510</v>
@@ -3126,28 +3108,28 @@
         <v>551492</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1010</v>
       </c>
       <c r="N14" s="7">
-        <v>1107850</v>
+        <v>1107849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3171,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3215,13 +3197,13 @@
         <v>60640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3230,13 +3212,13 @@
         <v>61273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -3245,13 +3227,13 @@
         <v>121913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3248,13 @@
         <v>417278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3281,13 +3263,13 @@
         <v>435576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3296,13 +3278,13 @@
         <v>852854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3352,13 @@
         <v>71221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -3385,13 +3367,13 @@
         <v>96807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>160</v>
@@ -3400,13 +3382,13 @@
         <v>168028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3403,13 @@
         <v>520107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>572</v>
@@ -3436,13 +3418,13 @@
         <v>681124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>1122</v>
@@ -3451,13 +3433,13 @@
         <v>1201231</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3507,13 @@
         <v>479965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>504</v>
@@ -3540,13 +3522,13 @@
         <v>527383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>963</v>
@@ -3555,13 +3537,13 @@
         <v>1007348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3558,13 @@
         <v>2914385</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>2834</v>
@@ -3591,13 +3573,13 @@
         <v>3017159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>5606</v>
@@ -3606,13 +3588,13 @@
         <v>5931544</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3650,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
